--- a/AAII_Financials/Quarterly/DTRK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DTRK_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="92">
   <si>
     <t>DTRK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,74 +665,82 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43738</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43555</v>
+      </c>
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43373</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43281</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43190</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43008</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>42916</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>42825</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>42735</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42643</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1900</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1800</v>
       </c>
       <c r="F8" s="3">
         <v>1900</v>
@@ -744,25 +752,31 @@
         <v>1900</v>
       </c>
       <c r="I8" s="3">
-        <v>5600</v>
+        <v>1800</v>
       </c>
       <c r="J8" s="3">
         <v>1900</v>
       </c>
       <c r="K8" s="3">
+        <v>5600</v>
+      </c>
+      <c r="L8" s="3">
+        <v>1900</v>
+      </c>
+      <c r="M8" s="3">
         <v>2000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>2000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>2100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -770,10 +784,10 @@
         <v>400</v>
       </c>
       <c r="E9" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F9" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G9" s="3">
         <v>300</v>
@@ -782,16 +796,16 @@
         <v>300</v>
       </c>
       <c r="I9" s="3">
-        <v>1100</v>
+        <v>300</v>
       </c>
       <c r="J9" s="3">
         <v>300</v>
       </c>
       <c r="K9" s="3">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="L9" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="M9" s="3">
         <v>400</v>
@@ -799,19 +813,25 @@
       <c r="N9" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3">
+        <v>400</v>
+      </c>
+      <c r="P9" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="E10" s="3">
         <v>1500</v>
       </c>
       <c r="F10" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="G10" s="3">
         <v>1500</v>
@@ -820,25 +840,31 @@
         <v>1600</v>
       </c>
       <c r="I10" s="3">
-        <v>4500</v>
+        <v>1500</v>
       </c>
       <c r="J10" s="3">
         <v>1600</v>
       </c>
       <c r="K10" s="3">
-        <v>1600</v>
+        <v>4500</v>
       </c>
       <c r="L10" s="3">
         <v>1600</v>
       </c>
       <c r="M10" s="3">
+        <v>1600</v>
+      </c>
+      <c r="N10" s="3">
+        <v>1600</v>
+      </c>
+      <c r="O10" s="3">
         <v>1700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -853,8 +879,10 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -891,8 +919,14 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -929,31 +963,37 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -967,8 +1007,14 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -982,31 +1028,37 @@
         <v>200</v>
       </c>
       <c r="G15" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H15" s="3">
         <v>200</v>
       </c>
       <c r="I15" s="3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="J15" s="3">
         <v>200</v>
       </c>
       <c r="K15" s="3">
+        <v>500</v>
+      </c>
+      <c r="L15" s="3">
         <v>200</v>
       </c>
-      <c r="L15" s="3">
-        <v>100</v>
-      </c>
       <c r="M15" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N15" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>100</v>
+      </c>
+      <c r="P15" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1018,8 +1070,10 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1030,72 +1084,84 @@
         <v>1800</v>
       </c>
       <c r="F17" s="3">
+        <v>1900</v>
+      </c>
+      <c r="G17" s="3">
         <v>1800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
+        <v>1800</v>
+      </c>
+      <c r="I17" s="3">
         <v>1900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>5700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>2200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
         <v>100</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H18" s="3">
-        <v>300</v>
       </c>
       <c r="I18" s="3">
         <v>-100</v>
       </c>
       <c r="J18" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K18" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="L18" s="3">
         <v>100</v>
       </c>
       <c r="M18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N18" s="3">
+        <v>100</v>
+      </c>
+      <c r="O18" s="3">
         <v>400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1110,8 +1176,10 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1148,8 +1216,14 @@
       <c r="N20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1186,8 +1260,14 @@
       <c r="N21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1207,14 +1287,14 @@
         <v>0</v>
       </c>
       <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
         <v>100</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
       <c r="L22" s="3">
         <v>0</v>
       </c>
@@ -1224,46 +1304,58 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E23" s="3">
+        <v>200</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
         <v>100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>300</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-300</v>
-      </c>
-      <c r="J23" s="3">
-        <v>100</v>
       </c>
       <c r="K23" s="3">
         <v>-300</v>
       </c>
       <c r="L23" s="3">
+        <v>100</v>
+      </c>
+      <c r="M23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N23" s="3">
         <v>200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1300,8 +1392,14 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1338,84 +1436,102 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E26" s="3">
+        <v>200</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
         <v>100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>300</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-300</v>
-      </c>
-      <c r="J26" s="3">
-        <v>100</v>
       </c>
       <c r="K26" s="3">
         <v>-300</v>
       </c>
       <c r="L26" s="3">
+        <v>100</v>
+      </c>
+      <c r="M26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N26" s="3">
         <v>200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E27" s="3">
+        <v>200</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
         <v>100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>300</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-300</v>
-      </c>
-      <c r="J27" s="3">
-        <v>100</v>
       </c>
       <c r="K27" s="3">
         <v>-300</v>
       </c>
       <c r="L27" s="3">
+        <v>100</v>
+      </c>
+      <c r="M27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N27" s="3">
         <v>200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1452,8 +1568,14 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1469,17 +1591,17 @@
       <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29" s="3">
         <v>100</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
@@ -1490,8 +1612,14 @@
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1528,8 +1656,14 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1566,8 +1700,14 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1604,46 +1744,58 @@
       <c r="N32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E33" s="3">
+        <v>200</v>
+      </c>
+      <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
         <v>100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>500</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-300</v>
-      </c>
-      <c r="J33" s="3">
-        <v>100</v>
       </c>
       <c r="K33" s="3">
         <v>-300</v>
       </c>
       <c r="L33" s="3">
+        <v>100</v>
+      </c>
+      <c r="M33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N33" s="3">
         <v>200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1680,89 +1832,107 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E35" s="3">
+        <v>200</v>
+      </c>
+      <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
         <v>100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>500</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-300</v>
-      </c>
-      <c r="J35" s="3">
-        <v>100</v>
       </c>
       <c r="K35" s="3">
         <v>-300</v>
       </c>
       <c r="L35" s="3">
+        <v>100</v>
+      </c>
+      <c r="M35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N35" s="3">
         <v>200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43738</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43555</v>
+      </c>
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43373</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43281</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43190</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43008</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>42916</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>42825</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>42735</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42643</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1777,8 +1947,10 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1793,46 +1965,54 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E41" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F41" s="3">
         <v>2300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>1800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>2000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>2500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>2500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>1300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>2400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>2500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>1700</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1857,11 +2037,11 @@
       <c r="J42" s="3">
         <v>0</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L42" s="3" t="s">
-        <v>8</v>
+      <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3">
+        <v>0</v>
       </c>
       <c r="M42" s="3" t="s">
         <v>8</v>
@@ -1869,46 +2049,58 @@
       <c r="N42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>700</v>
+      </c>
+      <c r="E43" s="3">
+        <v>900</v>
+      </c>
+      <c r="F43" s="3">
         <v>800</v>
-      </c>
-      <c r="E43" s="3">
-        <v>700</v>
-      </c>
-      <c r="F43" s="3">
-        <v>700</v>
       </c>
       <c r="G43" s="3">
         <v>700</v>
       </c>
       <c r="H43" s="3">
+        <v>700</v>
+      </c>
+      <c r="I43" s="3">
+        <v>700</v>
+      </c>
+      <c r="J43" s="3">
         <v>800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>2300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>700</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1945,8 +2137,14 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1957,10 +2155,10 @@
         <v>200</v>
       </c>
       <c r="F45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H45" s="3">
         <v>300</v>
@@ -1980,49 +2178,61 @@
       <c r="M45" s="3">
         <v>300</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N45" s="3">
+        <v>300</v>
+      </c>
+      <c r="O45" s="3">
+        <v>300</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E46" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F46" s="3">
         <v>3400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>2700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>3000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>3500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>3600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>3900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>2800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>3500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>3400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>2800</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2059,19 +2269,25 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E48" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F48" s="3">
         <v>1400</v>
-      </c>
-      <c r="E48" s="3">
-        <v>1500</v>
-      </c>
-      <c r="F48" s="3">
-        <v>1500</v>
       </c>
       <c r="G48" s="3">
         <v>1500</v>
@@ -2089,16 +2305,22 @@
         <v>1500</v>
       </c>
       <c r="L48" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="M48" s="3">
         <v>1500</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N48" s="3">
+        <v>1600</v>
+      </c>
+      <c r="O48" s="3">
+        <v>1500</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2135,8 +2357,14 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2173,8 +2401,14 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2211,8 +2445,14 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2220,37 +2460,43 @@
         <v>400</v>
       </c>
       <c r="E52" s="3">
+        <v>400</v>
+      </c>
+      <c r="F52" s="3">
+        <v>400</v>
+      </c>
+      <c r="G52" s="3">
         <v>500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>300</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2287,46 +2533,58 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E54" s="3">
+        <v>7200</v>
+      </c>
+      <c r="F54" s="3">
         <v>5300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>4700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>5000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>5400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>5500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>5700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>4600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>5200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>5200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>4600</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2341,8 +2599,10 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2357,46 +2617,54 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="E57" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="F57" s="3">
         <v>1100</v>
       </c>
       <c r="G57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H57" s="3">
         <v>1100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J57" s="3">
         <v>1000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>1000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>2500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>2800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>2000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>2200</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2433,92 +2701,110 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3500</v>
+        <v>3900</v>
       </c>
       <c r="E59" s="3">
-        <v>2900</v>
+        <v>3100</v>
       </c>
       <c r="F59" s="3">
         <v>3500</v>
       </c>
       <c r="G59" s="3">
+        <v>2900</v>
+      </c>
+      <c r="H59" s="3">
+        <v>3500</v>
+      </c>
+      <c r="I59" s="3">
         <v>4000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>4300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>4900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>4000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>4300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>5100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>4600</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4600</v>
+        <v>5100</v>
       </c>
       <c r="E60" s="3">
         <v>4100</v>
       </c>
       <c r="F60" s="3">
+        <v>4600</v>
+      </c>
+      <c r="G60" s="3">
+        <v>4100</v>
+      </c>
+      <c r="H60" s="3">
         <v>4500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>5100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>5300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>6000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>6500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>7100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>7100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>6700</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>200</v>
+        <v>2100</v>
       </c>
       <c r="E61" s="3">
-        <v>200</v>
+        <v>2300</v>
       </c>
       <c r="F61" s="3">
         <v>200</v>
@@ -2545,10 +2831,16 @@
         <v>200</v>
       </c>
       <c r="N61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="O61" s="3">
+        <v>200</v>
+      </c>
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2585,8 +2877,14 @@
       <c r="N62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2623,8 +2921,14 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2661,8 +2965,14 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2699,46 +3009,58 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E66" s="3">
+        <v>6400</v>
+      </c>
+      <c r="F66" s="3">
         <v>4800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>4300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>4700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>5300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>5400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>6100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>6700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>7300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>7200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>6900</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2753,8 +3075,10 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2791,8 +3115,14 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2829,8 +3159,14 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2867,8 +3203,14 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2905,46 +3247,58 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F72" s="3">
         <v>500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-2100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-2100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-2000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-2300</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2981,8 +3335,14 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3019,8 +3379,14 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3057,46 +3423,58 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>800</v>
+      </c>
+      <c r="F76" s="3">
         <v>500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-2100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-2100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-2000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-2300</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3133,89 +3511,107 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43738</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43555</v>
+      </c>
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43373</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43281</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43190</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43008</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>42916</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>42825</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>42735</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42643</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E81" s="3">
+        <v>200</v>
+      </c>
+      <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
         <v>100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>500</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-300</v>
-      </c>
-      <c r="J81" s="3">
-        <v>100</v>
       </c>
       <c r="K81" s="3">
         <v>-300</v>
       </c>
       <c r="L81" s="3">
+        <v>100</v>
+      </c>
+      <c r="M81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N81" s="3">
         <v>200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3230,8 +3626,10 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3268,8 +3666,14 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3306,8 +3710,14 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3344,8 +3754,14 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3382,8 +3798,14 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3420,8 +3842,14 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3458,8 +3886,14 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3496,8 +3930,14 @@
       <c r="N89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3512,8 +3952,10 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3550,8 +3992,14 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3588,8 +4036,14 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3626,8 +4080,14 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3664,8 +4124,14 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3680,8 +4146,10 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3718,8 +4186,14 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3756,8 +4230,14 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3794,8 +4274,14 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3832,8 +4318,14 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3870,8 +4362,14 @@
       <c r="N100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3908,8 +4406,14 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3944,6 +4448,12 @@
         <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DTRK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DTRK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="92">
   <si>
     <t>DTRK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,74 +665,81 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42825</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42643</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -743,10 +750,10 @@
         <v>1900</v>
       </c>
       <c r="F8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G8" s="3">
         <v>1900</v>
-      </c>
-      <c r="G8" s="3">
-        <v>1800</v>
       </c>
       <c r="H8" s="3">
         <v>1900</v>
@@ -758,42 +765,48 @@
         <v>1900</v>
       </c>
       <c r="K8" s="3">
-        <v>5600</v>
+        <v>1800</v>
       </c>
       <c r="L8" s="3">
         <v>1900</v>
       </c>
       <c r="M8" s="3">
+        <v>5600</v>
+      </c>
+      <c r="N8" s="3">
+        <v>1900</v>
+      </c>
+      <c r="O8" s="3">
         <v>2000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>2000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>2100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E9" s="3">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="F9" s="3">
         <v>400</v>
       </c>
       <c r="G9" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H9" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="I9" s="3">
         <v>300</v>
@@ -802,16 +815,16 @@
         <v>300</v>
       </c>
       <c r="K9" s="3">
-        <v>1100</v>
+        <v>300</v>
       </c>
       <c r="L9" s="3">
         <v>300</v>
       </c>
       <c r="M9" s="3">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="N9" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="O9" s="3">
         <v>400</v>
@@ -819,25 +832,31 @@
       <c r="P9" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3">
+        <v>400</v>
+      </c>
+      <c r="R9" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E10" s="3">
+        <v>800</v>
+      </c>
+      <c r="F10" s="3">
         <v>1600</v>
-      </c>
-      <c r="E10" s="3">
-        <v>1500</v>
-      </c>
-      <c r="F10" s="3">
-        <v>1500</v>
       </c>
       <c r="G10" s="3">
         <v>1500</v>
       </c>
       <c r="H10" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="I10" s="3">
         <v>1500</v>
@@ -846,25 +865,31 @@
         <v>1600</v>
       </c>
       <c r="K10" s="3">
-        <v>4500</v>
+        <v>1500</v>
       </c>
       <c r="L10" s="3">
         <v>1600</v>
       </c>
       <c r="M10" s="3">
-        <v>1600</v>
+        <v>4500</v>
       </c>
       <c r="N10" s="3">
         <v>1600</v>
       </c>
       <c r="O10" s="3">
+        <v>1600</v>
+      </c>
+      <c r="P10" s="3">
+        <v>1600</v>
+      </c>
+      <c r="Q10" s="3">
         <v>1700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +906,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -925,8 +952,14 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,16 +1002,22 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
+      <c r="E14" s="3">
+        <v>-600</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
@@ -995,11 +1034,11 @@
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1013,16 +1052,22 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E15" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F15" s="3">
         <v>200</v>
@@ -1034,31 +1079,37 @@
         <v>200</v>
       </c>
       <c r="I15" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J15" s="3">
         <v>200</v>
       </c>
       <c r="K15" s="3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="L15" s="3">
         <v>200</v>
       </c>
       <c r="M15" s="3">
+        <v>500</v>
+      </c>
+      <c r="N15" s="3">
         <v>200</v>
       </c>
-      <c r="N15" s="3">
-        <v>100</v>
-      </c>
       <c r="O15" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P15" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>100</v>
+      </c>
+      <c r="R15" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,8 +1123,10 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1090,34 +1143,40 @@
         <v>1800</v>
       </c>
       <c r="H17" s="3">
+        <v>1900</v>
+      </c>
+      <c r="I17" s="3">
         <v>1800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K17" s="3">
         <v>1900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>5700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>2200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1128,40 +1187,46 @@
         <v>100</v>
       </c>
       <c r="F18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
         <v>100</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J18" s="3">
-        <v>300</v>
       </c>
       <c r="K18" s="3">
         <v>-100</v>
       </c>
       <c r="L18" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="M18" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="N18" s="3">
         <v>100</v>
       </c>
       <c r="O18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P18" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q18" s="3">
         <v>400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1243,10 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1222,8 +1289,14 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1266,8 +1339,14 @@
       <c r="P21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1293,14 +1372,14 @@
         <v>0</v>
       </c>
       <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
         <v>100</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
       <c r="N22" s="3">
         <v>0</v>
       </c>
@@ -1310,8 +1389,14 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1319,43 +1404,49 @@
         <v>100</v>
       </c>
       <c r="E23" s="3">
+        <v>100</v>
+      </c>
+      <c r="F23" s="3">
+        <v>100</v>
+      </c>
+      <c r="G23" s="3">
         <v>200</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
         <v>100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>300</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-300</v>
-      </c>
-      <c r="L23" s="3">
-        <v>100</v>
       </c>
       <c r="M23" s="3">
         <v>-300</v>
       </c>
       <c r="N23" s="3">
+        <v>100</v>
+      </c>
+      <c r="O23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P23" s="3">
         <v>200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1398,8 +1489,14 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,8 +1539,14 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1451,43 +1554,49 @@
         <v>100</v>
       </c>
       <c r="E26" s="3">
+        <v>100</v>
+      </c>
+      <c r="F26" s="3">
+        <v>100</v>
+      </c>
+      <c r="G26" s="3">
         <v>200</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
         <v>100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>300</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-300</v>
-      </c>
-      <c r="L26" s="3">
-        <v>100</v>
       </c>
       <c r="M26" s="3">
         <v>-300</v>
       </c>
       <c r="N26" s="3">
+        <v>100</v>
+      </c>
+      <c r="O26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P26" s="3">
         <v>200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1495,43 +1604,49 @@
         <v>100</v>
       </c>
       <c r="E27" s="3">
+        <v>100</v>
+      </c>
+      <c r="F27" s="3">
+        <v>100</v>
+      </c>
+      <c r="G27" s="3">
         <v>200</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
         <v>100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>300</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-300</v>
-      </c>
-      <c r="L27" s="3">
-        <v>100</v>
       </c>
       <c r="M27" s="3">
         <v>-300</v>
       </c>
       <c r="N27" s="3">
+        <v>100</v>
+      </c>
+      <c r="O27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P27" s="3">
         <v>200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1689,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1597,17 +1718,17 @@
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" s="3">
         <v>100</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -1618,8 +1739,14 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1839,14 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1750,8 +1889,14 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1759,43 +1904,49 @@
         <v>100</v>
       </c>
       <c r="E33" s="3">
+        <v>100</v>
+      </c>
+      <c r="F33" s="3">
+        <v>100</v>
+      </c>
+      <c r="G33" s="3">
         <v>200</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
         <v>100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>500</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-300</v>
-      </c>
-      <c r="L33" s="3">
-        <v>100</v>
       </c>
       <c r="M33" s="3">
         <v>-300</v>
       </c>
       <c r="N33" s="3">
+        <v>100</v>
+      </c>
+      <c r="O33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P33" s="3">
         <v>200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,8 +1989,14 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1847,92 +2004,104 @@
         <v>100</v>
       </c>
       <c r="E35" s="3">
+        <v>100</v>
+      </c>
+      <c r="F35" s="3">
+        <v>100</v>
+      </c>
+      <c r="G35" s="3">
         <v>200</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
         <v>100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>500</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-300</v>
-      </c>
-      <c r="L35" s="3">
-        <v>100</v>
       </c>
       <c r="M35" s="3">
         <v>-300</v>
       </c>
       <c r="N35" s="3">
+        <v>100</v>
+      </c>
+      <c r="O35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P35" s="3">
         <v>200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42825</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42643</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2138,60 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E41" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F41" s="3">
         <v>3700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>2100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>2300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>1800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>2000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>2500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>2500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>1300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>1800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>2400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>2500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>1700</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2043,11 +2222,11 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N42" s="3" t="s">
-        <v>8</v>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
       </c>
       <c r="O42" s="3" t="s">
         <v>8</v>
@@ -2055,52 +2234,64 @@
       <c r="P42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>600</v>
+      </c>
+      <c r="E43" s="3">
+        <v>600</v>
+      </c>
+      <c r="F43" s="3">
         <v>700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>800</v>
-      </c>
-      <c r="G43" s="3">
-        <v>700</v>
-      </c>
-      <c r="H43" s="3">
-        <v>700</v>
       </c>
       <c r="I43" s="3">
         <v>700</v>
       </c>
       <c r="J43" s="3">
+        <v>700</v>
+      </c>
+      <c r="K43" s="3">
+        <v>700</v>
+      </c>
+      <c r="L43" s="3">
         <v>800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>2300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>700</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,8 +2334,14 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2161,10 +2358,10 @@
         <v>200</v>
       </c>
       <c r="H45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J45" s="3">
         <v>300</v>
@@ -2184,55 +2381,67 @@
       <c r="O45" s="3">
         <v>300</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P45" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>300</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E46" s="3">
+        <v>4800</v>
+      </c>
+      <c r="F46" s="3">
         <v>4500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>3300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>3400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>2700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>3000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>3500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>3600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>3900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>2800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>3500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>3400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>2800</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,25 +2484,31 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E48" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F48" s="3">
         <v>3300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>3400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>1400</v>
-      </c>
-      <c r="G48" s="3">
-        <v>1500</v>
-      </c>
-      <c r="H48" s="3">
-        <v>1500</v>
       </c>
       <c r="I48" s="3">
         <v>1500</v>
@@ -2311,16 +2526,22 @@
         <v>1500</v>
       </c>
       <c r="N48" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="O48" s="3">
         <v>1500</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P48" s="3">
+        <v>1600</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>1500</v>
+      </c>
+      <c r="R48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2363,8 +2584,14 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,13 +2684,19 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="E52" s="3">
         <v>400</v>
@@ -2466,37 +2705,43 @@
         <v>400</v>
       </c>
       <c r="G52" s="3">
+        <v>400</v>
+      </c>
+      <c r="H52" s="3">
+        <v>400</v>
+      </c>
+      <c r="I52" s="3">
         <v>500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>300</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2784,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>8400</v>
+      </c>
+      <c r="F54" s="3">
         <v>8200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>7200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>5300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>4700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>5000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>5400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>5500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>5700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>4600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>5200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>5200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>4600</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,52 +2878,60 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E57" s="3">
+        <v>900</v>
+      </c>
+      <c r="F57" s="3">
         <v>1200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>1000</v>
-      </c>
-      <c r="F57" s="3">
-        <v>1100</v>
-      </c>
-      <c r="G57" s="3">
-        <v>1200</v>
       </c>
       <c r="H57" s="3">
         <v>1100</v>
       </c>
       <c r="I57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J57" s="3">
         <v>1100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="L57" s="3">
         <v>1000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>1000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>2500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>2800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>2000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>2200</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2707,110 +2974,128 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E59" s="3">
+        <v>4300</v>
+      </c>
+      <c r="F59" s="3">
         <v>3900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>3100</v>
-      </c>
-      <c r="F59" s="3">
-        <v>3500</v>
-      </c>
-      <c r="G59" s="3">
-        <v>2900</v>
       </c>
       <c r="H59" s="3">
         <v>3500</v>
       </c>
       <c r="I59" s="3">
+        <v>2900</v>
+      </c>
+      <c r="J59" s="3">
+        <v>3500</v>
+      </c>
+      <c r="K59" s="3">
         <v>4000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>4300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>4900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>4000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>4300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>5100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>4600</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E60" s="3">
+        <v>5200</v>
+      </c>
+      <c r="F60" s="3">
         <v>5100</v>
-      </c>
-      <c r="E60" s="3">
-        <v>4100</v>
-      </c>
-      <c r="F60" s="3">
-        <v>4600</v>
       </c>
       <c r="G60" s="3">
         <v>4100</v>
       </c>
       <c r="H60" s="3">
+        <v>4600</v>
+      </c>
+      <c r="I60" s="3">
+        <v>4100</v>
+      </c>
+      <c r="J60" s="3">
         <v>4500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>5100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>5300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>6000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>6500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>7100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>7100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>6700</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E61" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F61" s="3">
         <v>2100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>2300</v>
-      </c>
-      <c r="F61" s="3">
-        <v>200</v>
-      </c>
-      <c r="G61" s="3">
-        <v>200</v>
       </c>
       <c r="H61" s="3">
         <v>200</v>
@@ -2837,10 +3122,16 @@
         <v>200</v>
       </c>
       <c r="P61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>200</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2883,8 +3174,14 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3324,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E66" s="3">
         <v>7200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
+        <v>7200</v>
+      </c>
+      <c r="G66" s="3">
         <v>6400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>4800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>4300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>4700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>5300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>5400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>6100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>6700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>7300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>7200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>6900</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3544,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,8 +3594,14 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3264,41 +3611,47 @@
       <c r="E72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F72" s="3">
+      <c r="F72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H72" s="3">
         <v>500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-2100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-2100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-2000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-2300</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3794,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F76" s="3">
         <v>1000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-2100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-2100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-2000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-2300</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,57 +3894,69 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42825</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42643</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3575,43 +3964,49 @@
         <v>100</v>
       </c>
       <c r="E81" s="3">
+        <v>100</v>
+      </c>
+      <c r="F81" s="3">
+        <v>100</v>
+      </c>
+      <c r="G81" s="3">
         <v>200</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
         <v>100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>500</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-300</v>
-      </c>
-      <c r="L81" s="3">
-        <v>100</v>
       </c>
       <c r="M81" s="3">
         <v>-300</v>
       </c>
       <c r="N81" s="3">
+        <v>100</v>
+      </c>
+      <c r="O81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P81" s="3">
         <v>200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +4023,10 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3672,8 +4069,14 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,8 +4319,14 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3936,8 +4369,14 @@
       <c r="P89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4393,10 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3998,8 +4439,14 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4539,14 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4130,8 +4589,14 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4613,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4659,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,8 +4809,14 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4368,8 +4859,14 @@
       <c r="P100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,8 +4909,14 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4454,6 +4957,12 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DTRK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DTRK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="92">
   <si>
     <t>DTRK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,131 +665,138 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E8" s="3">
         <v>2000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2000</v>
-      </c>
-      <c r="G8" s="3">
-        <v>1900</v>
       </c>
       <c r="H8" s="3">
         <v>1900</v>
       </c>
       <c r="I8" s="3">
+        <v>1900</v>
+      </c>
+      <c r="J8" s="3">
         <v>1800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1900</v>
-      </c>
-      <c r="O8" s="3">
-        <v>2000</v>
       </c>
       <c r="P8" s="3">
         <v>2000</v>
       </c>
       <c r="Q8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="R8" s="3">
         <v>2100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -797,10 +804,10 @@
         <v>500</v>
       </c>
       <c r="E9" s="3">
+        <v>500</v>
+      </c>
+      <c r="F9" s="3">
         <v>1100</v>
-      </c>
-      <c r="F9" s="3">
-        <v>400</v>
       </c>
       <c r="G9" s="3">
         <v>400</v>
@@ -809,7 +816,7 @@
         <v>400</v>
       </c>
       <c r="I9" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="J9" s="3">
         <v>300</v>
@@ -821,13 +828,13 @@
         <v>300</v>
       </c>
       <c r="M9" s="3">
+        <v>300</v>
+      </c>
+      <c r="N9" s="3">
         <v>1100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>300</v>
-      </c>
-      <c r="O9" s="3">
-        <v>400</v>
       </c>
       <c r="P9" s="3">
         <v>400</v>
@@ -838,22 +845,25 @@
       <c r="R9" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E10" s="3">
         <v>1500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1600</v>
-      </c>
-      <c r="G10" s="3">
-        <v>1500</v>
       </c>
       <c r="H10" s="3">
         <v>1500</v>
@@ -862,19 +872,19 @@
         <v>1500</v>
       </c>
       <c r="J10" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K10" s="3">
         <v>1600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>4500</v>
-      </c>
-      <c r="N10" s="3">
-        <v>1600</v>
       </c>
       <c r="O10" s="3">
         <v>1600</v>
@@ -883,13 +893,16 @@
         <v>1600</v>
       </c>
       <c r="Q10" s="3">
+        <v>1600</v>
+      </c>
+      <c r="R10" s="3">
         <v>1700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,20 +1025,23 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3">
         <v>-600</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
@@ -1040,8 +1060,8 @@
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1058,8 +1078,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1070,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G15" s="3">
         <v>200</v>
@@ -1085,22 +1108,22 @@
         <v>200</v>
       </c>
       <c r="K15" s="3">
+        <v>200</v>
+      </c>
+      <c r="L15" s="3">
         <v>100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>500</v>
-      </c>
-      <c r="N15" s="3">
-        <v>200</v>
       </c>
       <c r="O15" s="3">
         <v>200</v>
       </c>
       <c r="P15" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q15" s="3">
         <v>100</v>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,63 +1151,67 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E17" s="3">
         <v>1900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1900</v>
-      </c>
-      <c r="I17" s="3">
-        <v>1800</v>
       </c>
       <c r="J17" s="3">
         <v>1800</v>
       </c>
       <c r="K17" s="3">
+        <v>1800</v>
+      </c>
+      <c r="L17" s="3">
         <v>1900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E18" s="3">
         <v>100</v>
@@ -1193,40 +1223,43 @@
         <v>100</v>
       </c>
       <c r="H18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I18" s="3">
         <v>0</v>
       </c>
       <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
         <v>100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,8 +1278,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1295,8 +1329,11 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1345,8 +1382,11 @@
       <c r="R21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1378,11 +1418,11 @@
         <v>0</v>
       </c>
       <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
         <v>100</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
       <c r="O22" s="3">
         <v>0</v>
       </c>
@@ -1395,13 +1435,16 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E23" s="3">
         <v>100</v>
@@ -1410,43 +1453,46 @@
         <v>100</v>
       </c>
       <c r="G23" s="3">
+        <v>100</v>
+      </c>
+      <c r="H23" s="3">
         <v>200</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
       <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
         <v>100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1495,8 +1541,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,13 +1594,16 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E26" s="3">
         <v>100</v>
@@ -1560,48 +1612,51 @@
         <v>100</v>
       </c>
       <c r="G26" s="3">
+        <v>100</v>
+      </c>
+      <c r="H26" s="3">
         <v>200</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
       <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
         <v>100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E27" s="3">
         <v>100</v>
@@ -1610,43 +1665,46 @@
         <v>100</v>
       </c>
       <c r="G27" s="3">
+        <v>100</v>
+      </c>
+      <c r="H27" s="3">
         <v>200</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
       <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
         <v>100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1724,14 +1785,14 @@
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="3">
         <v>100</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,8 +1912,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1895,13 +1965,16 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E33" s="3">
         <v>100</v>
@@ -1910,43 +1983,46 @@
         <v>100</v>
       </c>
       <c r="G33" s="3">
+        <v>100</v>
+      </c>
+      <c r="H33" s="3">
         <v>200</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
       <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
         <v>100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,13 +2071,16 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E35" s="3">
         <v>100</v>
@@ -2010,98 +2089,104 @@
         <v>100</v>
       </c>
       <c r="G35" s="3">
+        <v>100</v>
+      </c>
+      <c r="H35" s="3">
         <v>200</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
       <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
         <v>100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,58 +2226,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E41" s="3">
         <v>3400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2000</v>
-      </c>
-      <c r="K41" s="3">
-        <v>2500</v>
       </c>
       <c r="L41" s="3">
         <v>2500</v>
       </c>
       <c r="M41" s="3">
+        <v>2500</v>
+      </c>
+      <c r="N41" s="3">
         <v>1300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1700</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2228,8 +2318,8 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>8</v>
+      <c r="O42" s="3">
+        <v>0</v>
       </c>
       <c r="P42" s="3" t="s">
         <v>8</v>
@@ -2240,28 +2330,31 @@
       <c r="R42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="E43" s="3">
         <v>600</v>
       </c>
       <c r="F43" s="3">
+        <v>600</v>
+      </c>
+      <c r="G43" s="3">
         <v>700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>800</v>
-      </c>
-      <c r="I43" s="3">
-        <v>700</v>
       </c>
       <c r="J43" s="3">
         <v>700</v>
@@ -2270,28 +2363,31 @@
         <v>700</v>
       </c>
       <c r="L43" s="3">
+        <v>700</v>
+      </c>
+      <c r="M43" s="3">
         <v>800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>800</v>
-      </c>
-      <c r="P43" s="3">
-        <v>700</v>
       </c>
       <c r="Q43" s="3">
         <v>700</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>700</v>
+      </c>
+      <c r="S43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2340,13 +2436,16 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
         <v>200</v>
@@ -2364,7 +2463,7 @@
         <v>200</v>
       </c>
       <c r="J45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K45" s="3">
         <v>300</v>
@@ -2387,61 +2486,67 @@
       <c r="Q45" s="3">
         <v>300</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>300</v>
+      </c>
+      <c r="S45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E46" s="3">
         <v>4200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2800</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2490,28 +2595,31 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E48" s="3">
         <v>3100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1400</v>
-      </c>
-      <c r="I48" s="3">
-        <v>1500</v>
       </c>
       <c r="J48" s="3">
         <v>1500</v>
@@ -2532,16 +2640,19 @@
         <v>1500</v>
       </c>
       <c r="P48" s="3">
+        <v>1500</v>
+      </c>
+      <c r="Q48" s="3">
         <v>1600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1500</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2590,8 +2701,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,8 +2807,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2699,7 +2819,7 @@
         <v>600</v>
       </c>
       <c r="E52" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="F52" s="3">
         <v>400</v>
@@ -2711,37 +2831,40 @@
         <v>400</v>
       </c>
       <c r="I52" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J52" s="3">
         <v>500</v>
       </c>
       <c r="K52" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L52" s="3">
         <v>400</v>
       </c>
       <c r="M52" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N52" s="3">
         <v>300</v>
       </c>
       <c r="O52" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P52" s="3">
         <v>200</v>
       </c>
       <c r="Q52" s="3">
+        <v>200</v>
+      </c>
+      <c r="R52" s="3">
         <v>300</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E54" s="3">
         <v>7900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>8400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>8200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>7200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4600</v>
-      </c>
-      <c r="O54" s="3">
-        <v>5200</v>
       </c>
       <c r="P54" s="3">
         <v>5200</v>
       </c>
       <c r="Q54" s="3">
+        <v>5200</v>
+      </c>
+      <c r="R54" s="3">
         <v>4600</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,58 +3010,62 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E57" s="3">
         <v>1100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1200</v>
-      </c>
-      <c r="J57" s="3">
-        <v>1100</v>
       </c>
       <c r="K57" s="3">
         <v>1100</v>
       </c>
       <c r="L57" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="M57" s="3">
         <v>1000</v>
       </c>
       <c r="N57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O57" s="3">
         <v>2500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2200</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2980,125 +3114,134 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E59" s="3">
         <v>3600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>5100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>4600</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E60" s="3">
         <v>4700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>5100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>6500</v>
-      </c>
-      <c r="O60" s="3">
-        <v>7100</v>
       </c>
       <c r="P60" s="3">
         <v>7100</v>
       </c>
       <c r="Q60" s="3">
+        <v>7100</v>
+      </c>
+      <c r="R60" s="3">
         <v>6700</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E61" s="3">
         <v>1900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2300</v>
-      </c>
-      <c r="H61" s="3">
-        <v>200</v>
       </c>
       <c r="I61" s="3">
         <v>200</v>
@@ -3128,10 +3271,13 @@
         <v>200</v>
       </c>
       <c r="R61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3180,8 +3326,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E66" s="3">
         <v>6600</v>
-      </c>
-      <c r="E66" s="3">
-        <v>7200</v>
       </c>
       <c r="F66" s="3">
         <v>7200</v>
       </c>
       <c r="G66" s="3">
+        <v>7200</v>
+      </c>
+      <c r="H66" s="3">
         <v>6400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>7300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>7200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>6900</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,8 +3771,11 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3617,41 +3791,44 @@
       <c r="G72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H72" s="3">
+      <c r="H72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I72" s="3">
         <v>500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>300</v>
-      </c>
-      <c r="K72" s="3">
-        <v>100</v>
       </c>
       <c r="L72" s="3">
         <v>100</v>
       </c>
       <c r="M72" s="3">
+        <v>100</v>
+      </c>
+      <c r="N72" s="3">
         <v>-400</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-2100</v>
       </c>
       <c r="O72" s="3">
         <v>-2100</v>
       </c>
       <c r="P72" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-2300</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,8 +3983,11 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3809,49 +3995,52 @@
         <v>1300</v>
       </c>
       <c r="E76" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F76" s="3">
         <v>1100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>300</v>
-      </c>
-      <c r="K76" s="3">
-        <v>100</v>
       </c>
       <c r="L76" s="3">
         <v>100</v>
       </c>
       <c r="M76" s="3">
+        <v>100</v>
+      </c>
+      <c r="N76" s="3">
         <v>-400</v>
-      </c>
-      <c r="N76" s="3">
-        <v>-2100</v>
       </c>
       <c r="O76" s="3">
         <v>-2100</v>
       </c>
       <c r="P76" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="Q76" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-2300</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,68 +4089,74 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E81" s="3">
         <v>100</v>
@@ -3970,43 +4165,46 @@
         <v>100</v>
       </c>
       <c r="G81" s="3">
+        <v>100</v>
+      </c>
+      <c r="H81" s="3">
         <v>200</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
       <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
         <v>100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4075,8 +4274,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,8 +4539,11 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4375,8 +4592,11 @@
       <c r="R89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,8 +4615,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4445,8 +4666,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,8 +4772,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4595,8 +4825,11 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,8 +5058,11 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4865,8 +5111,11 @@
       <c r="R100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,8 +5164,11 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4963,6 +5215,9 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DTRK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DTRK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="92">
   <si>
     <t>DTRK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,138 +665,145 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E8" s="3">
         <v>1700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2000</v>
-      </c>
-      <c r="H8" s="3">
-        <v>1900</v>
       </c>
       <c r="I8" s="3">
         <v>1900</v>
       </c>
       <c r="J8" s="3">
+        <v>1900</v>
+      </c>
+      <c r="K8" s="3">
         <v>1800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1900</v>
-      </c>
-      <c r="P8" s="3">
-        <v>2000</v>
       </c>
       <c r="Q8" s="3">
         <v>2000</v>
       </c>
       <c r="R8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="S8" s="3">
         <v>2100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -807,10 +814,10 @@
         <v>500</v>
       </c>
       <c r="F9" s="3">
+        <v>500</v>
+      </c>
+      <c r="G9" s="3">
         <v>1100</v>
-      </c>
-      <c r="G9" s="3">
-        <v>400</v>
       </c>
       <c r="H9" s="3">
         <v>400</v>
@@ -819,7 +826,7 @@
         <v>400</v>
       </c>
       <c r="J9" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K9" s="3">
         <v>300</v>
@@ -831,13 +838,13 @@
         <v>300</v>
       </c>
       <c r="N9" s="3">
+        <v>300</v>
+      </c>
+      <c r="O9" s="3">
         <v>1100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>300</v>
-      </c>
-      <c r="P9" s="3">
-        <v>400</v>
       </c>
       <c r="Q9" s="3">
         <v>400</v>
@@ -848,25 +855,28 @@
       <c r="S9" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E10" s="3">
         <v>1200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1600</v>
-      </c>
-      <c r="H10" s="3">
-        <v>1500</v>
       </c>
       <c r="I10" s="3">
         <v>1500</v>
@@ -875,19 +885,19 @@
         <v>1500</v>
       </c>
       <c r="K10" s="3">
+        <v>1500</v>
+      </c>
+      <c r="L10" s="3">
         <v>1600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>4500</v>
-      </c>
-      <c r="O10" s="3">
-        <v>1600</v>
       </c>
       <c r="P10" s="3">
         <v>1600</v>
@@ -896,13 +906,16 @@
         <v>1600</v>
       </c>
       <c r="R10" s="3">
+        <v>1600</v>
+      </c>
+      <c r="S10" s="3">
         <v>1700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1039,12 +1059,12 @@
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3">
         <v>-600</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
@@ -1063,8 +1083,8 @@
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1096,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="G15" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H15" s="3">
         <v>200</v>
@@ -1111,22 +1134,22 @@
         <v>200</v>
       </c>
       <c r="L15" s="3">
+        <v>200</v>
+      </c>
+      <c r="M15" s="3">
         <v>100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>500</v>
-      </c>
-      <c r="O15" s="3">
-        <v>200</v>
       </c>
       <c r="P15" s="3">
         <v>200</v>
       </c>
       <c r="Q15" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R15" s="3">
         <v>100</v>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,8 +1178,9 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1161,60 +1188,63 @@
         <v>1800</v>
       </c>
       <c r="E17" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F17" s="3">
         <v>1900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1900</v>
-      </c>
-      <c r="J17" s="3">
-        <v>1800</v>
       </c>
       <c r="K17" s="3">
         <v>1800</v>
       </c>
       <c r="L17" s="3">
+        <v>1800</v>
+      </c>
+      <c r="M17" s="3">
         <v>1900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3">
         <v>-100</v>
-      </c>
-      <c r="E18" s="3">
-        <v>100</v>
       </c>
       <c r="F18" s="3">
         <v>100</v>
@@ -1226,40 +1256,43 @@
         <v>100</v>
       </c>
       <c r="I18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J18" s="3">
         <v>0</v>
       </c>
       <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
         <v>100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1312,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1332,8 +1366,11 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1385,8 +1422,11 @@
       <c r="S21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1421,11 +1461,11 @@
         <v>0</v>
       </c>
       <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
         <v>100</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
       <c r="P22" s="3">
         <v>0</v>
       </c>
@@ -1438,8 +1478,11 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1447,7 +1490,7 @@
         <v>0</v>
       </c>
       <c r="E23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F23" s="3">
         <v>100</v>
@@ -1456,43 +1499,46 @@
         <v>100</v>
       </c>
       <c r="H23" s="3">
+        <v>100</v>
+      </c>
+      <c r="I23" s="3">
         <v>200</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
       <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
         <v>100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,8 +1646,11 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1606,7 +1658,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F26" s="3">
         <v>100</v>
@@ -1615,43 +1667,46 @@
         <v>100</v>
       </c>
       <c r="H26" s="3">
+        <v>100</v>
+      </c>
+      <c r="I26" s="3">
         <v>200</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
       <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
         <v>100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1659,7 +1714,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F27" s="3">
         <v>100</v>
@@ -1668,43 +1723,46 @@
         <v>100</v>
       </c>
       <c r="H27" s="3">
+        <v>100</v>
+      </c>
+      <c r="I27" s="3">
         <v>200</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
       <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
         <v>100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1788,14 +1849,14 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3">
         <v>100</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +1982,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1968,8 +2038,11 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1977,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="E33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F33" s="3">
         <v>100</v>
@@ -1986,43 +2059,46 @@
         <v>100</v>
       </c>
       <c r="H33" s="3">
+        <v>100</v>
+      </c>
+      <c r="I33" s="3">
         <v>200</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
       <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,8 +2150,11 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2083,7 +2162,7 @@
         <v>0</v>
       </c>
       <c r="E35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F35" s="3">
         <v>100</v>
@@ -2092,101 +2171,107 @@
         <v>100</v>
       </c>
       <c r="H35" s="3">
+        <v>100</v>
+      </c>
+      <c r="I35" s="3">
         <v>200</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
       <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
         <v>100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,61 +2313,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E41" s="3">
         <v>3600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>4000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2000</v>
-      </c>
-      <c r="L41" s="3">
-        <v>2500</v>
       </c>
       <c r="M41" s="3">
         <v>2500</v>
       </c>
       <c r="N41" s="3">
+        <v>2500</v>
+      </c>
+      <c r="O41" s="3">
         <v>1300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1700</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2321,8 +2411,8 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>8</v>
+      <c r="P42" s="3">
+        <v>0</v>
       </c>
       <c r="Q42" s="3" t="s">
         <v>8</v>
@@ -2333,31 +2423,34 @@
       <c r="S42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>700</v>
+      </c>
+      <c r="E43" s="3">
         <v>800</v>
-      </c>
-      <c r="E43" s="3">
-        <v>600</v>
       </c>
       <c r="F43" s="3">
         <v>600</v>
       </c>
       <c r="G43" s="3">
+        <v>600</v>
+      </c>
+      <c r="H43" s="3">
         <v>700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>800</v>
-      </c>
-      <c r="J43" s="3">
-        <v>700</v>
       </c>
       <c r="K43" s="3">
         <v>700</v>
@@ -2366,28 +2459,31 @@
         <v>700</v>
       </c>
       <c r="M43" s="3">
+        <v>700</v>
+      </c>
+      <c r="N43" s="3">
         <v>800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>800</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>700</v>
       </c>
       <c r="R43" s="3">
         <v>700</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>700</v>
+      </c>
+      <c r="T43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,8 +2535,11 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2448,7 +2547,7 @@
         <v>100</v>
       </c>
       <c r="E45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F45" s="3">
         <v>200</v>
@@ -2466,7 +2565,7 @@
         <v>200</v>
       </c>
       <c r="K45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L45" s="3">
         <v>300</v>
@@ -2489,64 +2588,70 @@
       <c r="R45" s="3">
         <v>300</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>300</v>
+      </c>
+      <c r="T45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E46" s="3">
         <v>4500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2800</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,8 +2703,11 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2607,22 +2715,22 @@
         <v>3200</v>
       </c>
       <c r="E48" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F48" s="3">
         <v>3100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1400</v>
-      </c>
-      <c r="J48" s="3">
-        <v>1500</v>
       </c>
       <c r="K48" s="3">
         <v>1500</v>
@@ -2643,16 +2751,19 @@
         <v>1500</v>
       </c>
       <c r="Q48" s="3">
+        <v>1500</v>
+      </c>
+      <c r="R48" s="3">
         <v>1600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1500</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,19 +2927,22 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E52" s="3">
         <v>600</v>
       </c>
       <c r="F52" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="G52" s="3">
         <v>400</v>
@@ -2834,37 +2954,40 @@
         <v>400</v>
       </c>
       <c r="J52" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K52" s="3">
         <v>500</v>
       </c>
       <c r="L52" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M52" s="3">
         <v>400</v>
       </c>
       <c r="N52" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="O52" s="3">
         <v>300</v>
       </c>
       <c r="P52" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q52" s="3">
         <v>200</v>
       </c>
       <c r="R52" s="3">
+        <v>200</v>
+      </c>
+      <c r="S52" s="3">
         <v>300</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E54" s="3">
         <v>8300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>7900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>8400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>8200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>7200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4600</v>
-      </c>
-      <c r="P54" s="3">
-        <v>5200</v>
       </c>
       <c r="Q54" s="3">
         <v>5200</v>
       </c>
       <c r="R54" s="3">
+        <v>5200</v>
+      </c>
+      <c r="S54" s="3">
         <v>4600</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,8 +3141,9 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3020,52 +3151,55 @@
         <v>1700</v>
       </c>
       <c r="E57" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F57" s="3">
         <v>1100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1200</v>
-      </c>
-      <c r="K57" s="3">
-        <v>1100</v>
       </c>
       <c r="L57" s="3">
         <v>1100</v>
       </c>
       <c r="M57" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="N57" s="3">
         <v>1000</v>
       </c>
       <c r="O57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="P57" s="3">
         <v>2500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2200</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3117,134 +3251,143 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E59" s="3">
         <v>3100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>4300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>5100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>4600</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E60" s="3">
         <v>4800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>5200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>5100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>6000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>6500</v>
-      </c>
-      <c r="P60" s="3">
-        <v>7100</v>
       </c>
       <c r="Q60" s="3">
         <v>7100</v>
       </c>
       <c r="R60" s="3">
+        <v>7100</v>
+      </c>
+      <c r="S60" s="3">
         <v>6700</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E61" s="3">
         <v>2200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2300</v>
-      </c>
-      <c r="I61" s="3">
-        <v>200</v>
       </c>
       <c r="J61" s="3">
         <v>200</v>
@@ -3274,10 +3417,13 @@
         <v>200</v>
       </c>
       <c r="S61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E66" s="3">
         <v>7000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>6600</v>
-      </c>
-      <c r="F66" s="3">
-        <v>7200</v>
       </c>
       <c r="G66" s="3">
         <v>7200</v>
       </c>
       <c r="H66" s="3">
+        <v>7200</v>
+      </c>
+      <c r="I66" s="3">
         <v>6400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>6700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>7300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>7200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>6900</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,8 +3945,11 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3794,41 +3968,44 @@
       <c r="H72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I72" s="3">
+      <c r="I72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J72" s="3">
         <v>500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>300</v>
-      </c>
-      <c r="L72" s="3">
-        <v>100</v>
       </c>
       <c r="M72" s="3">
         <v>100</v>
       </c>
       <c r="N72" s="3">
+        <v>100</v>
+      </c>
+      <c r="O72" s="3">
         <v>-400</v>
-      </c>
-      <c r="O72" s="3">
-        <v>-2100</v>
       </c>
       <c r="P72" s="3">
         <v>-2100</v>
       </c>
       <c r="Q72" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="R72" s="3">
         <v>-2000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-2300</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,8 +4169,11 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3998,49 +4184,52 @@
         <v>1300</v>
       </c>
       <c r="F76" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G76" s="3">
         <v>1100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>300</v>
-      </c>
-      <c r="L76" s="3">
-        <v>100</v>
       </c>
       <c r="M76" s="3">
         <v>100</v>
       </c>
       <c r="N76" s="3">
+        <v>100</v>
+      </c>
+      <c r="O76" s="3">
         <v>-400</v>
-      </c>
-      <c r="O76" s="3">
-        <v>-2100</v>
       </c>
       <c r="P76" s="3">
         <v>-2100</v>
       </c>
       <c r="Q76" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="R76" s="3">
         <v>-2000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-2300</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,66 +4281,72 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4159,7 +4354,7 @@
         <v>0</v>
       </c>
       <c r="E81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F81" s="3">
         <v>100</v>
@@ -4168,43 +4363,46 @@
         <v>100</v>
       </c>
       <c r="H81" s="3">
+        <v>100</v>
+      </c>
+      <c r="I81" s="3">
         <v>200</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
       <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
         <v>100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,8 +4756,11 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4595,8 +4812,11 @@
       <c r="S89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4669,8 +4890,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,8 +5002,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4828,8 +5058,11 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,8 +5304,11 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5114,8 +5360,11 @@
       <c r="S100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,8 +5416,11 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5218,6 +5470,9 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DTRK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DTRK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="92">
   <si>
     <t>DTRK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,145 +665,152 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E8" s="3">
         <v>1800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2000</v>
-      </c>
-      <c r="I8" s="3">
-        <v>1900</v>
       </c>
       <c r="J8" s="3">
         <v>1900</v>
       </c>
       <c r="K8" s="3">
+        <v>1900</v>
+      </c>
+      <c r="L8" s="3">
         <v>1800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1900</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>2000</v>
       </c>
       <c r="R8" s="3">
         <v>2000</v>
       </c>
       <c r="S8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="T8" s="3">
         <v>2100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -817,10 +824,10 @@
         <v>500</v>
       </c>
       <c r="G9" s="3">
+        <v>500</v>
+      </c>
+      <c r="H9" s="3">
         <v>1100</v>
-      </c>
-      <c r="H9" s="3">
-        <v>400</v>
       </c>
       <c r="I9" s="3">
         <v>400</v>
@@ -829,7 +836,7 @@
         <v>400</v>
       </c>
       <c r="K9" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L9" s="3">
         <v>300</v>
@@ -841,13 +848,13 @@
         <v>300</v>
       </c>
       <c r="O9" s="3">
+        <v>300</v>
+      </c>
+      <c r="P9" s="3">
         <v>1100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>300</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>400</v>
       </c>
       <c r="R9" s="3">
         <v>400</v>
@@ -858,28 +865,31 @@
       <c r="T9" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E10" s="3">
         <v>1300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1600</v>
-      </c>
-      <c r="I10" s="3">
-        <v>1500</v>
       </c>
       <c r="J10" s="3">
         <v>1500</v>
@@ -888,19 +898,19 @@
         <v>1500</v>
       </c>
       <c r="L10" s="3">
+        <v>1500</v>
+      </c>
+      <c r="M10" s="3">
         <v>1600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>4500</v>
-      </c>
-      <c r="P10" s="3">
-        <v>1600</v>
       </c>
       <c r="Q10" s="3">
         <v>1600</v>
@@ -909,13 +919,16 @@
         <v>1600</v>
       </c>
       <c r="S10" s="3">
+        <v>1600</v>
+      </c>
+      <c r="T10" s="3">
         <v>1700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,8 +949,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -992,8 +1006,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1065,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1062,12 +1082,12 @@
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3">
         <v>-600</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
@@ -1086,8 +1106,8 @@
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1104,8 +1124,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1122,7 +1145,7 @@
         <v>0</v>
       </c>
       <c r="H15" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I15" s="3">
         <v>200</v>
@@ -1137,22 +1160,22 @@
         <v>200</v>
       </c>
       <c r="M15" s="3">
+        <v>200</v>
+      </c>
+      <c r="N15" s="3">
         <v>100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>200</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>500</v>
-      </c>
-      <c r="P15" s="3">
-        <v>200</v>
       </c>
       <c r="Q15" s="3">
         <v>200</v>
       </c>
       <c r="R15" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S15" s="3">
         <v>100</v>
@@ -1160,8 +1183,11 @@
       <c r="T15" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,8 +1205,9 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1191,63 +1218,66 @@
         <v>1800</v>
       </c>
       <c r="F17" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G17" s="3">
         <v>1900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1900</v>
-      </c>
-      <c r="K17" s="3">
-        <v>1800</v>
       </c>
       <c r="L17" s="3">
         <v>1800</v>
       </c>
       <c r="M17" s="3">
+        <v>1800</v>
+      </c>
+      <c r="N17" s="3">
         <v>1900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
         <v>-100</v>
-      </c>
-      <c r="F18" s="3">
-        <v>100</v>
       </c>
       <c r="G18" s="3">
         <v>100</v>
@@ -1259,40 +1289,43 @@
         <v>100</v>
       </c>
       <c r="J18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K18" s="3">
         <v>0</v>
       </c>
       <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
         <v>100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,13 +1346,14 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1369,8 +1403,11 @@
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1425,13 +1462,16 @@
       <c r="T21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
+      <c r="D22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -1464,11 +1504,11 @@
         <v>0</v>
       </c>
       <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
         <v>100</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
       <c r="Q22" s="3">
         <v>0</v>
       </c>
@@ -1481,8 +1521,11 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1493,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G23" s="3">
         <v>100</v>
@@ -1502,43 +1545,46 @@
         <v>100</v>
       </c>
       <c r="I23" s="3">
+        <v>100</v>
+      </c>
+      <c r="J23" s="3">
         <v>200</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
       <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
         <v>100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1639,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,8 +1698,11 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1661,7 +1713,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G26" s="3">
         <v>100</v>
@@ -1670,43 +1722,46 @@
         <v>100</v>
       </c>
       <c r="I26" s="3">
+        <v>100</v>
+      </c>
+      <c r="J26" s="3">
         <v>200</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
       <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
         <v>100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1717,7 +1772,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G27" s="3">
         <v>100</v>
@@ -1726,43 +1781,46 @@
         <v>100</v>
       </c>
       <c r="I27" s="3">
+        <v>100</v>
+      </c>
+      <c r="J27" s="3">
         <v>200</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
       <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
         <v>100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1875,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1852,14 +1913,14 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3">
         <v>100</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -1873,8 +1934,11 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,13 +2052,16 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2041,8 +2111,11 @@
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2053,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G33" s="3">
         <v>100</v>
@@ -2062,43 +2135,46 @@
         <v>100</v>
       </c>
       <c r="I33" s="3">
+        <v>100</v>
+      </c>
+      <c r="J33" s="3">
         <v>200</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
       <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
         <v>100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,8 +2229,11 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2165,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G35" s="3">
         <v>100</v>
@@ -2174,104 +2253,110 @@
         <v>100</v>
       </c>
       <c r="I35" s="3">
+        <v>100</v>
+      </c>
+      <c r="J35" s="3">
         <v>200</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
       <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
         <v>100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,69 +2400,73 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E41" s="3">
         <v>3200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>4000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2000</v>
-      </c>
-      <c r="M41" s="3">
-        <v>2500</v>
       </c>
       <c r="N41" s="3">
         <v>2500</v>
       </c>
       <c r="O41" s="3">
+        <v>2500</v>
+      </c>
+      <c r="P41" s="3">
         <v>1300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1700</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="E42" s="3">
         <v>0</v>
@@ -2414,8 +2504,8 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>8</v>
+      <c r="Q42" s="3">
+        <v>0</v>
       </c>
       <c r="R42" s="3" t="s">
         <v>8</v>
@@ -2426,34 +2516,37 @@
       <c r="T42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>600</v>
+      </c>
+      <c r="E43" s="3">
         <v>700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>800</v>
-      </c>
-      <c r="F43" s="3">
-        <v>600</v>
       </c>
       <c r="G43" s="3">
         <v>600</v>
       </c>
       <c r="H43" s="3">
+        <v>600</v>
+      </c>
+      <c r="I43" s="3">
         <v>700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>800</v>
-      </c>
-      <c r="K43" s="3">
-        <v>700</v>
       </c>
       <c r="L43" s="3">
         <v>700</v>
@@ -2462,28 +2555,31 @@
         <v>700</v>
       </c>
       <c r="N43" s="3">
+        <v>700</v>
+      </c>
+      <c r="O43" s="3">
         <v>800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>800</v>
-      </c>
-      <c r="R43" s="3">
-        <v>700</v>
       </c>
       <c r="S43" s="3">
         <v>700</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>700</v>
+      </c>
+      <c r="U43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,8 +2634,11 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2550,7 +2649,7 @@
         <v>100</v>
       </c>
       <c r="F45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G45" s="3">
         <v>200</v>
@@ -2568,7 +2667,7 @@
         <v>200</v>
       </c>
       <c r="L45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M45" s="3">
         <v>300</v>
@@ -2591,67 +2690,73 @@
       <c r="S45" s="3">
         <v>300</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>300</v>
+      </c>
+      <c r="U45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E46" s="3">
         <v>4100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2800</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,8 +2811,11 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2718,22 +2826,22 @@
         <v>3200</v>
       </c>
       <c r="F48" s="3">
+        <v>3200</v>
+      </c>
+      <c r="G48" s="3">
         <v>3100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1400</v>
-      </c>
-      <c r="K48" s="3">
-        <v>1500</v>
       </c>
       <c r="L48" s="3">
         <v>1500</v>
@@ -2754,16 +2862,19 @@
         <v>1500</v>
       </c>
       <c r="R48" s="3">
+        <v>1500</v>
+      </c>
+      <c r="S48" s="3">
         <v>1600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1500</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2818,8 +2929,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,22 +3047,25 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>300</v>
+      </c>
+      <c r="E52" s="3">
         <v>700</v>
-      </c>
-      <c r="E52" s="3">
-        <v>600</v>
       </c>
       <c r="F52" s="3">
         <v>600</v>
       </c>
       <c r="G52" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="H52" s="3">
         <v>400</v>
@@ -2957,37 +3077,40 @@
         <v>400</v>
       </c>
       <c r="K52" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L52" s="3">
         <v>500</v>
       </c>
       <c r="M52" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N52" s="3">
         <v>400</v>
       </c>
       <c r="O52" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="P52" s="3">
         <v>300</v>
       </c>
       <c r="Q52" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="R52" s="3">
         <v>200</v>
       </c>
       <c r="S52" s="3">
+        <v>200</v>
+      </c>
+      <c r="T52" s="3">
         <v>300</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,8 +3165,11 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3051,55 +3177,58 @@
         <v>7900</v>
       </c>
       <c r="E54" s="3">
+        <v>7900</v>
+      </c>
+      <c r="F54" s="3">
         <v>8300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>7900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>8400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>8200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>7200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4600</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>5200</v>
       </c>
       <c r="R54" s="3">
         <v>5200</v>
       </c>
       <c r="S54" s="3">
+        <v>5200</v>
+      </c>
+      <c r="T54" s="3">
         <v>4600</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,64 +3272,68 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="E57" s="3">
         <v>1700</v>
       </c>
       <c r="F57" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G57" s="3">
         <v>1100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1200</v>
-      </c>
-      <c r="L57" s="3">
-        <v>1100</v>
       </c>
       <c r="M57" s="3">
         <v>1100</v>
       </c>
       <c r="N57" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="O57" s="3">
         <v>1000</v>
       </c>
       <c r="P57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Q57" s="3">
         <v>2500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2200</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3254,143 +3388,152 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E59" s="3">
         <v>2800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>4000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>4300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>5100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>4600</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E60" s="3">
         <v>4500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>5200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>5100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>5300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>6000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>6500</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>7100</v>
       </c>
       <c r="R60" s="3">
         <v>7100</v>
       </c>
       <c r="S60" s="3">
+        <v>7100</v>
+      </c>
+      <c r="T60" s="3">
         <v>6700</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E61" s="3">
         <v>2100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2300</v>
-      </c>
-      <c r="J61" s="3">
-        <v>200</v>
       </c>
       <c r="K61" s="3">
         <v>200</v>
@@ -3420,10 +3563,13 @@
         <v>200</v>
       </c>
       <c r="T61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3478,8 +3624,11 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3801,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E66" s="3">
         <v>6600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>7000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>6600</v>
-      </c>
-      <c r="G66" s="3">
-        <v>7200</v>
       </c>
       <c r="H66" s="3">
         <v>7200</v>
       </c>
       <c r="I66" s="3">
+        <v>7200</v>
+      </c>
+      <c r="J66" s="3">
         <v>6400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>6100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>6700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>7300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>7200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>6900</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4001,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4060,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,8 +4119,11 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3971,41 +4145,44 @@
       <c r="I72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J72" s="3">
+      <c r="J72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K72" s="3">
         <v>500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>300</v>
-      </c>
-      <c r="M72" s="3">
-        <v>100</v>
       </c>
       <c r="N72" s="3">
         <v>100</v>
       </c>
       <c r="O72" s="3">
+        <v>100</v>
+      </c>
+      <c r="P72" s="3">
         <v>-400</v>
-      </c>
-      <c r="P72" s="3">
-        <v>-2100</v>
       </c>
       <c r="Q72" s="3">
         <v>-2100</v>
       </c>
       <c r="R72" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="S72" s="3">
         <v>-2000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-2300</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,8 +4355,11 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4187,49 +4373,52 @@
         <v>1300</v>
       </c>
       <c r="G76" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H76" s="3">
         <v>1100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>300</v>
-      </c>
-      <c r="M76" s="3">
-        <v>100</v>
       </c>
       <c r="N76" s="3">
         <v>100</v>
       </c>
       <c r="O76" s="3">
+        <v>100</v>
+      </c>
+      <c r="P76" s="3">
         <v>-400</v>
-      </c>
-      <c r="P76" s="3">
-        <v>-2100</v>
       </c>
       <c r="Q76" s="3">
         <v>-2100</v>
       </c>
       <c r="R76" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="S76" s="3">
         <v>-2000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-2300</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,69 +4473,75 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4357,7 +4552,7 @@
         <v>0</v>
       </c>
       <c r="F81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G81" s="3">
         <v>100</v>
@@ -4366,43 +4561,46 @@
         <v>100</v>
       </c>
       <c r="I81" s="3">
+        <v>100</v>
+      </c>
+      <c r="J81" s="3">
         <v>200</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
       <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
         <v>100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4621,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4479,8 +4678,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,8 +4973,11 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4815,8 +5032,11 @@
       <c r="T89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5057,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4893,8 +5114,11 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5232,11 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5061,8 +5291,11 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5316,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5373,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,8 +5550,11 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5363,8 +5609,11 @@
       <c r="T100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,8 +5668,11 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5473,6 +5725,9 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DTRK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DTRK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="92">
   <si>
     <t>DTRK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,152 +665,159 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E8" s="3">
         <v>1700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2000</v>
-      </c>
-      <c r="J8" s="3">
-        <v>1900</v>
       </c>
       <c r="K8" s="3">
         <v>1900</v>
       </c>
       <c r="L8" s="3">
+        <v>1900</v>
+      </c>
+      <c r="M8" s="3">
         <v>1800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1900</v>
-      </c>
-      <c r="R8" s="3">
-        <v>2000</v>
       </c>
       <c r="S8" s="3">
         <v>2000</v>
       </c>
       <c r="T8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="U8" s="3">
         <v>2100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -827,10 +834,10 @@
         <v>500</v>
       </c>
       <c r="H9" s="3">
+        <v>500</v>
+      </c>
+      <c r="I9" s="3">
         <v>1100</v>
-      </c>
-      <c r="I9" s="3">
-        <v>400</v>
       </c>
       <c r="J9" s="3">
         <v>400</v>
@@ -839,7 +846,7 @@
         <v>400</v>
       </c>
       <c r="L9" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M9" s="3">
         <v>300</v>
@@ -851,13 +858,13 @@
         <v>300</v>
       </c>
       <c r="P9" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q9" s="3">
         <v>1100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>300</v>
-      </c>
-      <c r="R9" s="3">
-        <v>400</v>
       </c>
       <c r="S9" s="3">
         <v>400</v>
@@ -868,31 +875,34 @@
       <c r="U9" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E10" s="3">
         <v>1200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1600</v>
-      </c>
-      <c r="J10" s="3">
-        <v>1500</v>
       </c>
       <c r="K10" s="3">
         <v>1500</v>
@@ -901,19 +911,19 @@
         <v>1500</v>
       </c>
       <c r="M10" s="3">
+        <v>1500</v>
+      </c>
+      <c r="N10" s="3">
         <v>1600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>4500</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>1600</v>
       </c>
       <c r="R10" s="3">
         <v>1600</v>
@@ -922,13 +932,16 @@
         <v>1600</v>
       </c>
       <c r="T10" s="3">
+        <v>1600</v>
+      </c>
+      <c r="U10" s="3">
         <v>1700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -950,8 +963,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1009,8 +1023,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,8 +1085,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1085,12 +1105,12 @@
       <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3">
         <v>-600</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
@@ -1109,8 +1129,8 @@
       <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1127,8 +1147,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1148,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J15" s="3">
         <v>200</v>
@@ -1163,22 +1186,22 @@
         <v>200</v>
       </c>
       <c r="N15" s="3">
+        <v>200</v>
+      </c>
+      <c r="O15" s="3">
         <v>100</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>200</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>500</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>200</v>
       </c>
       <c r="R15" s="3">
         <v>200</v>
       </c>
       <c r="S15" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T15" s="3">
         <v>100</v>
@@ -1186,8 +1209,11 @@
       <c r="U15" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,13 +1232,14 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="E17" s="3">
         <v>1800</v>
@@ -1221,66 +1248,69 @@
         <v>1800</v>
       </c>
       <c r="G17" s="3">
+        <v>1800</v>
+      </c>
+      <c r="H17" s="3">
         <v>1900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1900</v>
-      </c>
-      <c r="L17" s="3">
-        <v>1800</v>
       </c>
       <c r="M17" s="3">
         <v>1800</v>
       </c>
       <c r="N17" s="3">
+        <v>1800</v>
+      </c>
+      <c r="O17" s="3">
         <v>1900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E18" s="3">
         <v>-100</v>
       </c>
-      <c r="E18" s="3">
-        <v>0</v>
-      </c>
       <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
         <v>-100</v>
-      </c>
-      <c r="G18" s="3">
-        <v>100</v>
       </c>
       <c r="H18" s="3">
         <v>100</v>
@@ -1292,40 +1322,43 @@
         <v>100</v>
       </c>
       <c r="K18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L18" s="3">
         <v>0</v>
       </c>
       <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
         <v>100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,17 +1380,18 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>900</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
@@ -1406,8 +1440,11 @@
       <c r="U20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1465,16 +1502,19 @@
       <c r="U21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
+      <c r="E22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -1507,11 +1547,11 @@
         <v>0</v>
       </c>
       <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
         <v>100</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
       <c r="R22" s="3">
         <v>0</v>
       </c>
@@ -1524,13 +1564,16 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E23" s="3">
         <v>0</v>
@@ -1539,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H23" s="3">
         <v>100</v>
@@ -1548,43 +1591,46 @@
         <v>100</v>
       </c>
       <c r="J23" s="3">
+        <v>100</v>
+      </c>
+      <c r="K23" s="3">
         <v>200</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
       <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
         <v>100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1642,8 +1688,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,13 +1750,16 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
@@ -1716,7 +1768,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H26" s="3">
         <v>100</v>
@@ -1725,48 +1777,51 @@
         <v>100</v>
       </c>
       <c r="J26" s="3">
+        <v>100</v>
+      </c>
+      <c r="K26" s="3">
         <v>200</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
       <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
         <v>100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
@@ -1775,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="G27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H27" s="3">
         <v>100</v>
@@ -1784,43 +1839,46 @@
         <v>100</v>
       </c>
       <c r="J27" s="3">
+        <v>100</v>
+      </c>
+      <c r="K27" s="3">
         <v>200</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
       <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
         <v>100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1936,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1916,14 +1977,14 @@
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3">
         <v>100</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
+      <c r="Q29" s="3">
+        <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
@@ -1937,8 +1998,11 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2060,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,17 +2122,20 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
@@ -2114,13 +2184,16 @@
       <c r="U32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
@@ -2129,7 +2202,7 @@
         <v>0</v>
       </c>
       <c r="G33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H33" s="3">
         <v>100</v>
@@ -2138,43 +2211,46 @@
         <v>100</v>
       </c>
       <c r="J33" s="3">
+        <v>100</v>
+      </c>
+      <c r="K33" s="3">
         <v>200</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
       <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
         <v>100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,13 +2308,16 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E35" s="3">
         <v>0</v>
@@ -2247,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="G35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H35" s="3">
         <v>100</v>
@@ -2256,107 +2335,113 @@
         <v>100</v>
       </c>
       <c r="J35" s="3">
+        <v>100</v>
+      </c>
+      <c r="K35" s="3">
         <v>200</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
       <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
         <v>100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2463,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,76 +2487,80 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E41" s="3">
         <v>2800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2000</v>
-      </c>
-      <c r="N41" s="3">
-        <v>2500</v>
       </c>
       <c r="O41" s="3">
         <v>2500</v>
       </c>
       <c r="P41" s="3">
+        <v>2500</v>
+      </c>
+      <c r="Q41" s="3">
         <v>1300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1700</v>
       </c>
-      <c r="U41" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>900</v>
+      </c>
+      <c r="E42" s="3">
         <v>800</v>
       </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
       <c r="F42" s="3">
         <v>0</v>
       </c>
@@ -2507,8 +2597,8 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-      <c r="R42" s="3" t="s">
-        <v>8</v>
+      <c r="R42" s="3">
+        <v>0</v>
       </c>
       <c r="S42" s="3" t="s">
         <v>8</v>
@@ -2519,37 +2609,40 @@
       <c r="U42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>700</v>
+      </c>
+      <c r="E43" s="3">
         <v>600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>800</v>
-      </c>
-      <c r="G43" s="3">
-        <v>600</v>
       </c>
       <c r="H43" s="3">
         <v>600</v>
       </c>
       <c r="I43" s="3">
+        <v>600</v>
+      </c>
+      <c r="J43" s="3">
         <v>700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>800</v>
-      </c>
-      <c r="L43" s="3">
-        <v>700</v>
       </c>
       <c r="M43" s="3">
         <v>700</v>
@@ -2558,28 +2651,31 @@
         <v>700</v>
       </c>
       <c r="O43" s="3">
+        <v>700</v>
+      </c>
+      <c r="P43" s="3">
         <v>800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>800</v>
-      </c>
-      <c r="S43" s="3">
-        <v>700</v>
       </c>
       <c r="T43" s="3">
         <v>700</v>
       </c>
-      <c r="U43" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>700</v>
+      </c>
+      <c r="V43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2637,8 +2733,11 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2652,7 +2751,7 @@
         <v>100</v>
       </c>
       <c r="G45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H45" s="3">
         <v>200</v>
@@ -2670,7 +2769,7 @@
         <v>200</v>
       </c>
       <c r="M45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N45" s="3">
         <v>300</v>
@@ -2693,70 +2792,76 @@
       <c r="T45" s="3">
         <v>300</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>300</v>
+      </c>
+      <c r="V45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E46" s="3">
         <v>4300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2800</v>
       </c>
-      <c r="U46" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2814,13 +2919,16 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="E48" s="3">
         <v>3200</v>
@@ -2829,22 +2937,22 @@
         <v>3200</v>
       </c>
       <c r="G48" s="3">
+        <v>3200</v>
+      </c>
+      <c r="H48" s="3">
         <v>3100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1400</v>
-      </c>
-      <c r="L48" s="3">
-        <v>1500</v>
       </c>
       <c r="M48" s="3">
         <v>1500</v>
@@ -2865,16 +2973,19 @@
         <v>1500</v>
       </c>
       <c r="S48" s="3">
+        <v>1500</v>
+      </c>
+      <c r="T48" s="3">
         <v>1600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1500</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2932,8 +3043,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3105,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,25 +3167,28 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>500</v>
+      </c>
+      <c r="E52" s="3">
         <v>300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>700</v>
-      </c>
-      <c r="F52" s="3">
-        <v>600</v>
       </c>
       <c r="G52" s="3">
         <v>600</v>
       </c>
       <c r="H52" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="I52" s="3">
         <v>400</v>
@@ -3080,37 +3200,40 @@
         <v>400</v>
       </c>
       <c r="L52" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M52" s="3">
         <v>500</v>
       </c>
       <c r="N52" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="O52" s="3">
         <v>400</v>
       </c>
       <c r="P52" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Q52" s="3">
         <v>300</v>
       </c>
       <c r="R52" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="S52" s="3">
         <v>200</v>
       </c>
       <c r="T52" s="3">
+        <v>200</v>
+      </c>
+      <c r="U52" s="3">
         <v>300</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,67 +3291,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7900</v>
+        <v>7200</v>
       </c>
       <c r="E54" s="3">
         <v>7900</v>
       </c>
       <c r="F54" s="3">
+        <v>7900</v>
+      </c>
+      <c r="G54" s="3">
         <v>8300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>7900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>8400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>8200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>7200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4600</v>
-      </c>
-      <c r="R54" s="3">
-        <v>5200</v>
       </c>
       <c r="S54" s="3">
         <v>5200</v>
       </c>
       <c r="T54" s="3">
+        <v>5200</v>
+      </c>
+      <c r="U54" s="3">
         <v>4600</v>
       </c>
-      <c r="U54" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3379,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,67 +3403,71 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E57" s="3">
         <v>1600</v>
-      </c>
-      <c r="E57" s="3">
-        <v>1700</v>
       </c>
       <c r="F57" s="3">
         <v>1700</v>
       </c>
       <c r="G57" s="3">
+        <v>1700</v>
+      </c>
+      <c r="H57" s="3">
         <v>1100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1200</v>
-      </c>
-      <c r="M57" s="3">
-        <v>1100</v>
       </c>
       <c r="N57" s="3">
         <v>1100</v>
       </c>
       <c r="O57" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="P57" s="3">
         <v>1000</v>
       </c>
       <c r="Q57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R57" s="3">
         <v>2500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2200</v>
       </c>
-      <c r="U57" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3391,152 +3525,161 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E59" s="3">
         <v>3000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>4900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>4000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>4300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>5100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>4600</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E60" s="3">
         <v>4600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>5200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>5100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>5100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>5300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>6000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>6500</v>
-      </c>
-      <c r="R60" s="3">
-        <v>7100</v>
       </c>
       <c r="S60" s="3">
         <v>7100</v>
       </c>
       <c r="T60" s="3">
+        <v>7100</v>
+      </c>
+      <c r="U60" s="3">
         <v>6700</v>
       </c>
-      <c r="U60" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E61" s="3">
         <v>1900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2300</v>
-      </c>
-      <c r="K61" s="3">
-        <v>200</v>
       </c>
       <c r="L61" s="3">
         <v>200</v>
@@ -3566,10 +3709,13 @@
         <v>200</v>
       </c>
       <c r="U61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3627,8 +3773,11 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3835,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3897,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,67 +3959,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E66" s="3">
         <v>6500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>6600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>7000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>6600</v>
-      </c>
-      <c r="H66" s="3">
-        <v>7200</v>
       </c>
       <c r="I66" s="3">
         <v>7200</v>
       </c>
       <c r="J66" s="3">
+        <v>7200</v>
+      </c>
+      <c r="K66" s="3">
         <v>6400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>5400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>6100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>6700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>7300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>7200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>6900</v>
       </c>
-      <c r="U66" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4047,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4107,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4169,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4231,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,67 +4293,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K72" s="3">
+      <c r="D72" s="3">
+        <v>0</v>
+      </c>
+      <c r="E72" s="3">
+        <v>0</v>
+      </c>
+      <c r="F72" s="3">
+        <v>0</v>
+      </c>
+      <c r="G72" s="3">
+        <v>0</v>
+      </c>
+      <c r="H72" s="3">
+        <v>0</v>
+      </c>
+      <c r="I72" s="3">
+        <v>0</v>
+      </c>
+      <c r="J72" s="3">
+        <v>0</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L72" s="3">
         <v>500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>300</v>
-      </c>
-      <c r="N72" s="3">
-        <v>100</v>
       </c>
       <c r="O72" s="3">
         <v>100</v>
       </c>
       <c r="P72" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-400</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>-2100</v>
       </c>
       <c r="R72" s="3">
         <v>-2100</v>
       </c>
       <c r="S72" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="T72" s="3">
         <v>-2000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-2300</v>
       </c>
-      <c r="U72" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4417,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4479,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,13 +4541,16 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1300</v>
+        <v>1900</v>
       </c>
       <c r="E76" s="3">
         <v>1300</v>
@@ -4376,49 +4562,52 @@
         <v>1300</v>
       </c>
       <c r="H76" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I76" s="3">
         <v>1100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>300</v>
-      </c>
-      <c r="N76" s="3">
-        <v>100</v>
       </c>
       <c r="O76" s="3">
         <v>100</v>
       </c>
       <c r="P76" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q76" s="3">
         <v>-400</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>-2100</v>
       </c>
       <c r="R76" s="3">
         <v>-2100</v>
       </c>
       <c r="S76" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="T76" s="3">
         <v>-2000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-2300</v>
       </c>
-      <c r="U76" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,77 +4665,83 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E81" s="3">
         <v>0</v>
@@ -4555,7 +4750,7 @@
         <v>0</v>
       </c>
       <c r="G81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H81" s="3">
         <v>100</v>
@@ -4564,43 +4759,46 @@
         <v>100</v>
       </c>
       <c r="J81" s="3">
+        <v>100</v>
+      </c>
+      <c r="K81" s="3">
         <v>200</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
       <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
         <v>100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,8 +4820,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4681,8 +4880,11 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4942,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5004,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5066,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5128,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,8 +5190,11 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5035,8 +5252,11 @@
       <c r="U89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,8 +5278,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5117,8 +5338,11 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5400,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,8 +5462,11 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5294,8 +5524,11 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5550,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +5610,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5672,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5734,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,8 +5796,11 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5612,8 +5858,11 @@
       <c r="U100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5671,8 +5920,11 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5728,6 +5980,9 @@
         <v>0</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DTRK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DTRK_QTR_FIN.xlsx
@@ -2556,25 +2556,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="E42" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="F42" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G42" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H42" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I42" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J42" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -2742,25 +2742,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H45" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I45" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J45" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K45" s="3">
         <v>200</v>
